--- a/public/template/template-water-reading.xlsx
+++ b/public/template/template-water-reading.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ\BRD &amp; URF &amp;  BAST LIPPO\GMTD - Billing System\Develop E3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD1C86B-EE77-455D-87EC-BFE99E1D4043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18530" windowHeight="7210"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>CurrRead</t>
+    <t>UnitCode</t>
+  </si>
+  <si>
+    <t>UnitNo</t>
   </si>
   <si>
     <t>PrevRead</t>
   </si>
   <si>
-    <t>UnitCode</t>
-  </si>
-  <si>
-    <t>UnitNo</t>
+    <t>CurrRead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -48,123 +48,146 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color indexed="56"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="Cambria"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="24">
@@ -176,112 +199,134 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,6 +336,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -305,6 +394,21 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -336,114 +440,76 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -452,58 +518,61 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -552,7 +621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,26 +654,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,23 +689,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -824,42 +859,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.18181818181818" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5454545454545" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.1818181818182" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>